--- a/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,393 +453,779 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>45417</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>45411</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>45424</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>45418</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>144</v>
+      <c r="D3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>45431</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>45425</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
+      <c r="D4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45438</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>45432</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45439</v>
+        <v>45445</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" t="n">
-        <v>64</v>
+      <c r="C6" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45446</v>
+        <v>45452</v>
       </c>
       <c r="B7" t="n">
         <v>9</v>
       </c>
-      <c r="C7" t="n">
-        <v>144</v>
+      <c r="C7" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45453</v>
+        <v>45459</v>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" t="n">
-        <v>192</v>
+      <c r="C8" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45460</v>
+        <v>45466</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
-        <v>224</v>
+      <c r="C9" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45467</v>
+        <v>45473</v>
       </c>
       <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45474</v>
+        <v>45480</v>
       </c>
       <c r="B11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45481</v>
+        <v>45487</v>
       </c>
       <c r="B12" t="n">
         <v>16</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45488</v>
+        <v>45494</v>
       </c>
       <c r="B13" t="n">
         <v>19</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45495</v>
+        <v>45501</v>
       </c>
       <c r="B14" t="n">
         <v>18</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45502</v>
+        <v>45508</v>
       </c>
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45509</v>
+        <v>45515</v>
       </c>
       <c r="B16" t="n">
         <v>11</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45516</v>
+        <v>45522</v>
       </c>
       <c r="B17" t="n">
         <v>17</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="B18" t="n">
         <v>210</v>
       </c>
-      <c r="C18" t="n">
-        <v>16</v>
+      <c r="C18" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45530</v>
+        <v>45536</v>
       </c>
       <c r="B19" t="n">
         <v>53</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45537</v>
+        <v>45543</v>
       </c>
       <c r="B20" t="n">
         <v>91</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45544</v>
+        <v>45550</v>
       </c>
       <c r="B21" t="n">
         <v>17</v>
       </c>
-      <c r="C21" t="n">
-        <v>64</v>
+      <c r="C21" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45551</v>
+        <v>45557</v>
       </c>
       <c r="B22" t="n">
         <v>38</v>
       </c>
-      <c r="C22" t="n">
-        <v>608</v>
+      <c r="C22" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45558</v>
+        <v>45564</v>
       </c>
       <c r="B23" t="n">
         <v>12</v>
       </c>
-      <c r="C23" t="n">
-        <v>16</v>
+      <c r="C23" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45565</v>
+        <v>45571</v>
       </c>
       <c r="B24" t="n">
         <v>15</v>
       </c>
-      <c r="C24" t="n">
-        <v>16</v>
+      <c r="C24" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45572</v>
+        <v>45578</v>
       </c>
       <c r="B25" t="n">
         <v>53</v>
       </c>
-      <c r="C25" t="n">
-        <v>256</v>
+      <c r="C25" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45579</v>
+        <v>45585</v>
       </c>
       <c r="B26" t="n">
         <v>32</v>
       </c>
-      <c r="C26" t="n">
-        <v>16</v>
+      <c r="C26" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45586</v>
+        <v>45592</v>
       </c>
       <c r="B27" t="n">
         <v>24</v>
       </c>
-      <c r="C27" t="n">
-        <v>592</v>
+      <c r="C27" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45593</v>
+        <v>45599</v>
       </c>
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45600</v>
+        <v>45606</v>
       </c>
       <c r="B29" t="n">
         <v>14</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45607</v>
+        <v>45613</v>
       </c>
       <c r="B30" t="n">
         <v>63</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45614</v>
+        <v>45620</v>
       </c>
       <c r="B31" t="n">
         <v>185</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45621</v>
+        <v>45627</v>
       </c>
       <c r="B32" t="n">
         <v>45</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45628</v>
+        <v>45634</v>
       </c>
       <c r="B33" t="n">
         <v>201</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45635</v>
+        <v>45641</v>
       </c>
       <c r="B34" t="n">
         <v>153</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45642</v>
+        <v>45648</v>
       </c>
       <c r="B35" t="n">
         <v>160</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45649</v>
+        <v>45655</v>
       </c>
       <c r="B36" t="n">
         <v>147</v>
       </c>
-      <c r="C36" t="n">
-        <v>0</v>
+      <c r="C36" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B2" t="n">
+        <v>144</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-77.77777777777779</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B4" t="n">
+        <v>64</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B5" t="n">
+        <v>144</v>
+      </c>
+      <c r="C5" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B6" t="n">
+        <v>192</v>
+      </c>
+      <c r="C6" t="n">
+        <v>33.33333333333333</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B7" t="n">
+        <v>224</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16.66666666666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-92.85714285714286</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B9" t="n">
+        <v>64</v>
+      </c>
+      <c r="C9" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B10" t="n">
+        <v>608</v>
+      </c>
+      <c r="C10" t="n">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B11" t="n">
+        <v>16</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-97.36842105263158</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B12" t="n">
+        <v>16</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B13" t="n">
+        <v>256</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B14" t="n">
+        <v>16</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-93.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B15" t="n">
+        <v>592</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2384</v>
+      </c>
+      <c r="B2" t="n">
+        <v>170.2857142857143</v>
+      </c>
+      <c r="C2" t="n">
+        <v>608</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>282.3736263736264</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,502 +453,392 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45417</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45424</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+      <c r="C3" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45431</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45438</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45445</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+      <c r="C6" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45452</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+      <c r="C7" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45459</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="C8" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45466</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+      <c r="C9" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45473</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45480</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D11" t="n">
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45487</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>16</v>
       </c>
-      <c r="C12" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D12" t="n">
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45494</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>19</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45501</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D14" t="n">
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45508</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D15" t="n">
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45515</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>11</v>
       </c>
-      <c r="C16" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D16" t="n">
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45522</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D17" t="n">
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45529</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>210</v>
       </c>
-      <c r="C18" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="C18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45536</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>53</v>
       </c>
-      <c r="C19" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D19" t="n">
+      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45543</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>91</v>
       </c>
-      <c r="C20" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D20" t="n">
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45550</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>17</v>
       </c>
-      <c r="C21" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="C21" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45557</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="C22" t="n">
+        <v>608</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45564</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>12</v>
       </c>
-      <c r="C23" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="C23" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45571</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>15</v>
       </c>
-      <c r="C24" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="C24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45578</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="C25" t="n">
+        <v>256</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45585</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>32</v>
       </c>
-      <c r="C26" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="C26" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45592</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="C27" t="n">
+        <v>592</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45599</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>26</v>
       </c>
-      <c r="C28" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D28" t="n">
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45606</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>14</v>
       </c>
-      <c r="C29" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D29" t="n">
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45613</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D30" t="n">
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45620</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>185</v>
       </c>
-      <c r="C31" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D31" t="n">
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45627</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>45</v>
       </c>
-      <c r="C32" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D32" t="n">
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45634</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>201</v>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D33" t="n">
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45641</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>153</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D34" t="n">
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45648</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B35" t="n">
         <v>160</v>
       </c>
-      <c r="C35" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D35" t="n">
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45655</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B36" t="n">
         <v>147</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D36" t="n">
+      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -990,7 +880,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>144</v>
@@ -1001,7 +891,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>32</v>
@@ -1012,7 +902,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>64</v>
@@ -1023,7 +913,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45446</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>144</v>
@@ -1034,7 +924,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>192</v>
@@ -1045,7 +935,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>224</v>
@@ -1056,7 +946,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>16</v>
@@ -1067,7 +957,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>64</v>
@@ -1078,7 +968,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>608</v>
@@ -1089,7 +979,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>16</v>
@@ -1100,7 +990,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45565</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>16</v>
@@ -1111,7 +1001,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>256</v>
@@ -1122,7 +1012,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>16</v>
@@ -1133,7 +1023,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>592</v>

--- a/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,6 +731,14 @@
       </c>
       <c r="B36" t="n">
         <v>147</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -10450,7 +10458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11363,7 +11371,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83">
@@ -11374,7 +11382,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>184</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84">
@@ -11385,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>72</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85">
@@ -11396,7 +11404,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="86">
@@ -11407,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>184</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87">
@@ -11418,7 +11426,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>72</v>
+        <v>184</v>
       </c>
     </row>
     <row r="88">
@@ -11737,6 +11745,17 @@
         <v>147</v>
       </c>
       <c r="C116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B117" t="n">
+        <v>122</v>
+      </c>
+      <c r="C117" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,14 @@
       </c>
       <c r="B37" t="n">
         <v>122</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -10458,7 +10466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11151,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
@@ -11162,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64">
@@ -11173,7 +11181,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -11371,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83">
@@ -11382,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="84">
@@ -11393,7 +11401,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>184</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85">
@@ -11404,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86">
@@ -11415,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="87">
@@ -11426,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>184</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88">
@@ -11756,6 +11764,17 @@
         <v>122</v>
       </c>
       <c r="C117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B118" t="n">
+        <v>118</v>
+      </c>
+      <c r="C118" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,6 +747,14 @@
       </c>
       <c r="B38" t="n">
         <v>118</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -10466,7 +10474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11775,6 +11783,17 @@
         <v>118</v>
       </c>
       <c r="C118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B119" t="n">
+        <v>648</v>
+      </c>
+      <c r="C119" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
+++ b/po forecast comparison/B0D2RL4PT6_sales_po_comparison.xlsx
@@ -754,7 +754,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>648</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -11791,7 +11791,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B119" t="n">
-        <v>648</v>
+        <v>35</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
